--- a/Abnormality of the endocrine system_v1.0.xlsx
+++ b/Abnormality of the endocrine system_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doieisuke/Desktop/BLAH8_HPO_まとめPhenoAb_hpo 2/Done/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA557FC-4A77-484C-A213-883894164C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64ADC418-E8CE-DF43-AFA0-C669DF508680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36940" yWindow="2900" windowWidth="28800" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="551">
   <si>
     <t>orig_entry</t>
   </si>
@@ -845,6 +845,822 @@
   </si>
   <si>
     <t>Insulin-dependent but ketosis-resistant diabetes</t>
+  </si>
+  <si>
+    <t>副腎皮質細胞腫</t>
+  </si>
+  <si>
+    <t>異所性副腎</t>
+  </si>
+  <si>
+    <t>大菱形副腎過形成</t>
+  </si>
+  <si>
+    <t>先天性副腎過形成</t>
+  </si>
+  <si>
+    <t>副腎褐色細胞腫</t>
+  </si>
+  <si>
+    <t>副腎皮質がん</t>
+  </si>
+  <si>
+    <t>分泌性副腎皮質腺腫</t>
+  </si>
+  <si>
+    <t>非分泌性副腎皮質腺腫</t>
+  </si>
+  <si>
+    <t>副腎皮質機能低下症</t>
+  </si>
+  <si>
+    <t>色素性小結節性副腎皮質疾患</t>
+  </si>
+  <si>
+    <t>副腎石灰化</t>
+  </si>
+  <si>
+    <t>副腎髄質低形成</t>
+  </si>
+  <si>
+    <t>先天性副腎低形成</t>
+  </si>
+  <si>
+    <t>副腎奇形</t>
+  </si>
+  <si>
+    <t>副甲状腺機能不全症</t>
+  </si>
+  <si>
+    <t>副甲状腺低形成</t>
+  </si>
+  <si>
+    <t>異所性副甲状腺</t>
+  </si>
+  <si>
+    <t>副甲状腺がん</t>
+  </si>
+  <si>
+    <t>副甲状腺腺腫</t>
+  </si>
+  <si>
+    <t>副甲状腺過形成</t>
+  </si>
+  <si>
+    <t>自己免疫性副甲状腺機能低下症</t>
+  </si>
+  <si>
+    <t>先天性副甲状腺機能低下症</t>
+  </si>
+  <si>
+    <t>第三次副甲状腺機能亢進症</t>
+  </si>
+  <si>
+    <t>原発性副甲状腺機能亢進症</t>
+  </si>
+  <si>
+    <t>二次性副甲状腺機能亢進症</t>
+  </si>
+  <si>
+    <t>偽性副甲状腺機能低下症</t>
+  </si>
+  <si>
+    <t>尿中11-デオキシコルチゾール濃度の上昇</t>
+  </si>
+  <si>
+    <t>尿中11-デオキシコルチコステロン値の上昇</t>
+  </si>
+  <si>
+    <t>尿中コルチゾール濃度の上昇</t>
+  </si>
+  <si>
+    <t>尿中ゴナドトロピン濃度高値</t>
+  </si>
+  <si>
+    <t>尿中11-デオキシテトラヒドロコルチコステロン値上昇</t>
+  </si>
+  <si>
+    <t>甲状腺クリーゼ</t>
+  </si>
+  <si>
+    <t>バセドウ病</t>
+  </si>
+  <si>
+    <t>異所性甲状腺組織による甲状腺中毒症</t>
+  </si>
+  <si>
+    <t>中毒性多結節性甲状腺腫を伴う甲状腺中毒症</t>
+  </si>
+  <si>
+    <t>中毒性単発性甲状腺結節を伴う甲状腺中毒症</t>
+  </si>
+  <si>
+    <t>放射性ヨード取り込み増加</t>
+  </si>
+  <si>
+    <t>放射性ヨード取り込みの減少</t>
+  </si>
+  <si>
+    <t>循環rT3/T3比の上昇</t>
+  </si>
+  <si>
+    <t>循環逆T3濃度の上昇</t>
+  </si>
+  <si>
+    <t>循環T4濃度の上昇</t>
+  </si>
+  <si>
+    <t>循環T4濃度の低下</t>
+  </si>
+  <si>
+    <t>T3/T4比の上昇</t>
+  </si>
+  <si>
+    <t>T3/T4比の低下</t>
+  </si>
+  <si>
+    <t>循環遊離T3濃度の上昇</t>
+  </si>
+  <si>
+    <t>循環遊離T3濃度の減少</t>
+  </si>
+  <si>
+    <t>循環遊離T4濃度の減少</t>
+  </si>
+  <si>
+    <t>循環遊離T4濃度の上昇</t>
+  </si>
+  <si>
+    <t>ヨウ化物の酸化および組織化における甲状腺の欠陥</t>
+  </si>
+  <si>
+    <t>過塩素酸排出試験陽性</t>
+  </si>
+  <si>
+    <t>不活性化甲状腺刺激ホルモン受容体異常</t>
+  </si>
+  <si>
+    <t>活性化甲状腺刺激ホルモン受容体異常</t>
+  </si>
+  <si>
+    <t>視床下部甲状腺機能低下症</t>
+  </si>
+  <si>
+    <t>下垂体性甲状腺機能低下症</t>
+  </si>
+  <si>
+    <t>原発性甲状腺機能低下症</t>
+  </si>
+  <si>
+    <t>先天性甲状腺機能低下症</t>
+  </si>
+  <si>
+    <t>代償性甲状腺機能低下症</t>
+  </si>
+  <si>
+    <t>甲状腺機能亢進症</t>
+  </si>
+  <si>
+    <t>サイロトロピン放出ホルモン刺激試験に対するTSH反応の低下</t>
+  </si>
+  <si>
+    <t>サイロトロピン放出ホルモン刺激試験に対するTSH反応の消失</t>
+  </si>
+  <si>
+    <t>甲状腺ホルモンに対する感受性障害</t>
+  </si>
+  <si>
+    <t>甲状腺リンパ管拡張症</t>
+  </si>
+  <si>
+    <t>付属異所性甲状腺組織</t>
+  </si>
+  <si>
+    <t>舌側甲状腺</t>
+  </si>
+  <si>
+    <t>橋本甲状腺炎</t>
+  </si>
+  <si>
+    <t>ヒュルトレ細胞甲状腺腺腫</t>
+  </si>
+  <si>
+    <t>甲状腺乳頭腺腫</t>
+  </si>
+  <si>
+    <t>甲状腺大濾胞腺腫</t>
+  </si>
+  <si>
+    <t>甲状腺小濾胞腺腫</t>
+  </si>
+  <si>
+    <t>甲状腺異型腺腫</t>
+  </si>
+  <si>
+    <t>甲状腺乳頭がん</t>
+  </si>
+  <si>
+    <t>非髄様甲状腺がん</t>
+  </si>
+  <si>
+    <t>甲状腺髄様がん</t>
+  </si>
+  <si>
+    <t>甲状腺濾胞がん</t>
+  </si>
+  <si>
+    <t>甲状腺未分化癌</t>
+  </si>
+  <si>
+    <t>甲状腺C細胞過形成</t>
+  </si>
+  <si>
+    <t>甲状腺濾胞過形成</t>
+  </si>
+  <si>
+    <t>甲状腺結節</t>
+  </si>
+  <si>
+    <t>甲状腺無力症</t>
+  </si>
+  <si>
+    <t>甲状腺低形成</t>
+  </si>
+  <si>
+    <t>甲状腺半形成</t>
+  </si>
+  <si>
+    <t>真性多結節性甲状腺腫</t>
+  </si>
+  <si>
+    <t>先天性甲状腺腫</t>
+  </si>
+  <si>
+    <t>多結節性甲状腺腫</t>
+  </si>
+  <si>
+    <t>単結節性甲状腺腫</t>
+  </si>
+  <si>
+    <t>甲状腺舌嚢腫</t>
+  </si>
+  <si>
+    <t>中枢性糖尿病</t>
+  </si>
+  <si>
+    <t>腎性糖尿病性消耗性疾患</t>
+  </si>
+  <si>
+    <t>女性の思春期発育不全</t>
+  </si>
+  <si>
+    <t>アンドロゲン不全</t>
+  </si>
+  <si>
+    <t>思春期早発症</t>
+  </si>
+  <si>
+    <t>女性の思春期早発症</t>
+  </si>
+  <si>
+    <t>男性の思春期早発症</t>
+  </si>
+  <si>
+    <t>セルトリ細胞腫瘍を伴う思春期早発症</t>
+  </si>
+  <si>
+    <t>早発毛</t>
+  </si>
+  <si>
+    <t>異性性思春期早発症</t>
+  </si>
+  <si>
+    <t>原発性性腺機能不全</t>
+  </si>
+  <si>
+    <t>遅発初潮</t>
+  </si>
+  <si>
+    <t>遅発性初潮</t>
+  </si>
+  <si>
+    <t>遅発性副初潮</t>
+  </si>
+  <si>
+    <t>副腎性器症候群</t>
+  </si>
+  <si>
+    <t>性腺刺激性性腺機能低下症</t>
+  </si>
+  <si>
+    <t>男性性腺機能低下症</t>
+  </si>
+  <si>
+    <t>女性性腺機能低下症</t>
+  </si>
+  <si>
+    <t>高ゴナドトロピン性性腺機能低下症</t>
+  </si>
+  <si>
+    <t>ゴナドトロピンに対するライディッヒ細胞不感受性</t>
+  </si>
+  <si>
+    <t>二次性徴の欠如</t>
+  </si>
+  <si>
+    <t>胸腺過形成</t>
+  </si>
+  <si>
+    <t>胸腺ホルモン減少</t>
+  </si>
+  <si>
+    <t>異所性胸腺組織</t>
+  </si>
+  <si>
+    <t>胸腺形成不全</t>
+  </si>
+  <si>
+    <t>胸腺低形成</t>
+  </si>
+  <si>
+    <t>胸腺腫</t>
+  </si>
+  <si>
+    <t>循環ACTH値の上昇</t>
+  </si>
+  <si>
+    <t>循環ACTH値低下</t>
+  </si>
+  <si>
+    <t>血清レプチン低下</t>
+  </si>
+  <si>
+    <t>血清レプチン増加</t>
+  </si>
+  <si>
+    <t>血管内皮増殖因子レベルの上昇</t>
+  </si>
+  <si>
+    <t>血清エストロン増加</t>
+  </si>
+  <si>
+    <t>血清エストロン減少</t>
+  </si>
+  <si>
+    <t>血清エストラジオール増加</t>
+  </si>
+  <si>
+    <t>血清エストラジオール減少</t>
+  </si>
+  <si>
+    <t>血清エストリオール減少</t>
+  </si>
+  <si>
+    <t>血清エストリオール増加</t>
+  </si>
+  <si>
+    <t>循環中17ヒドロキシプレグネノロン濃度増加</t>
+  </si>
+  <si>
+    <t>循環プロゲステロン増加</t>
+  </si>
+  <si>
+    <t>循環中17-ヒドロキシプロゲステロン上昇</t>
+  </si>
+  <si>
+    <t>循環プロゲステロン減少</t>
+  </si>
+  <si>
+    <t>ゴナドトロピン刺激テストステロン対アンドロステンジオン比低下</t>
+  </si>
+  <si>
+    <t>循環アンドロステンジオン濃度上昇</t>
+  </si>
+  <si>
+    <t>血清テストステロン濃度の上昇</t>
+  </si>
+  <si>
+    <t>循環デヒドロエピアンドロステロン濃度の減少</t>
+  </si>
+  <si>
+    <t>血清テストステロン濃度低下</t>
+  </si>
+  <si>
+    <t>循環ジヒドロテストステロン濃度低下</t>
+  </si>
+  <si>
+    <t>循環アンドロステンジオン濃度減少</t>
+  </si>
+  <si>
+    <t>循環デヒドロエピアンドロステロン硫酸濃度の低下</t>
+  </si>
+  <si>
+    <t>低インスリン血症</t>
+  </si>
+  <si>
+    <t>高インスリン血症性低血糖症</t>
+  </si>
+  <si>
+    <t>空腹時高インスリン血症</t>
+  </si>
+  <si>
+    <t>循環インスリン：Cペプチド比の上昇</t>
+  </si>
+  <si>
+    <t>循環18-ヒドロキシコルチゾン濃度の上昇</t>
+  </si>
+  <si>
+    <t>循環18-ヒドロキシコルチゾン値の低下</t>
+  </si>
+  <si>
+    <t>循環コルチコステロン値の低下</t>
+  </si>
+  <si>
+    <t>循環デオキシコルチコステロン値異常</t>
+  </si>
+  <si>
+    <t>循環コルチコステロン値の上昇</t>
+  </si>
+  <si>
+    <t>原発性コルチゾール過剰症</t>
+  </si>
+  <si>
+    <t>血清11-デオキシコルチゾール上昇</t>
+  </si>
+  <si>
+    <t>続発性コルチゾール過剰症</t>
+  </si>
+  <si>
+    <t>デキサメタゾン抑制試験での逆説的コルチゾール分泌増加</t>
+  </si>
+  <si>
+    <t>循環コルチゾール値の低下</t>
+  </si>
+  <si>
+    <t>高ガストリン血症</t>
+  </si>
+  <si>
+    <t>循環副甲状腺ホルモン濃度の低下</t>
+  </si>
+  <si>
+    <t>循環プロカルシトニン濃度の上昇</t>
+  </si>
+  <si>
+    <t>循環副甲状腺ホルモン濃度の上昇</t>
+  </si>
+  <si>
+    <t>カルシトニン濃度上昇</t>
+  </si>
+  <si>
+    <t>循環オステオカルシン濃度の上昇</t>
+  </si>
+  <si>
+    <t>循環オステオカルシン濃度の低下</t>
+  </si>
+  <si>
+    <t>下垂体糖蛋白ホルモンαサブユニットレベルの上昇</t>
+  </si>
+  <si>
+    <t>下垂体糖蛋白ホルモンαサブユニットレベルの低下</t>
+  </si>
+  <si>
+    <t>循環カテコールアミン値の上昇</t>
+  </si>
+  <si>
+    <t>循環インスリン様成長因子1濃度の上昇</t>
+  </si>
+  <si>
+    <t>血清インスリン様成長因子1の減少</t>
+  </si>
+  <si>
+    <t>アディポネクチン濃度上昇</t>
+  </si>
+  <si>
+    <t>アディポネクチン濃度低下</t>
+  </si>
+  <si>
+    <t>血清セロトニン増加</t>
+  </si>
+  <si>
+    <t>ゴナドトロピン放出ホルモン脈動性の欠如</t>
+  </si>
+  <si>
+    <t>視床下部性腺刺激ホルモン放出ホルモン欠乏症</t>
+  </si>
+  <si>
+    <t>循環卵胞刺激ホルモン濃度の低下</t>
+  </si>
+  <si>
+    <t>循環卵胞刺激ホルモン濃度の上昇</t>
+  </si>
+  <si>
+    <t>循環黄体形成ホルモン濃度の上昇</t>
+  </si>
+  <si>
+    <t>循環黄体形成ホルモン濃度低下</t>
+  </si>
+  <si>
+    <t>グルカゴン濃度の低下</t>
+  </si>
+  <si>
+    <t>グルカゴン濃度の上昇</t>
+  </si>
+  <si>
+    <t>循環成長ホルモン濃度の低下</t>
+  </si>
+  <si>
+    <t>循環成長ホルモン濃度の上昇</t>
+  </si>
+  <si>
+    <t>抗ミュラーホルモン濃度の低下</t>
+  </si>
+  <si>
+    <t>抗ミュラーホルモン濃度の上昇</t>
+  </si>
+  <si>
+    <t>循環エリスロポエチン濃度の上昇</t>
+  </si>
+  <si>
+    <t>循環エリスロポエチン濃度の低下</t>
+  </si>
+  <si>
+    <t>インヒビンB濃度の低下</t>
+  </si>
+  <si>
+    <t>不適切な抗利尿ホルモン分泌</t>
+  </si>
+  <si>
+    <t>コルチコトロピン放出ホルモン刺激試験に対するコルチゾール反応障害</t>
+  </si>
+  <si>
+    <t>二次性成長ホルモン分泌不全</t>
+  </si>
+  <si>
+    <t>成長ホルモン放出ホルモン負荷に対する成長ホルモン反応の低下</t>
+  </si>
+  <si>
+    <t>ACTH刺激試験に対する反応異常</t>
+  </si>
+  <si>
+    <t>ヒト絨毛性ゴナドトロフィン刺激試験に対する反応異常</t>
+  </si>
+  <si>
+    <t>インスリン刺激試験に対する成長ホルモン反応障害</t>
+  </si>
+  <si>
+    <t>インスリン刺激試験に対するコルチゾール反応異常</t>
+  </si>
+  <si>
+    <t>ゴナドトロピン放出ホルモン刺激試験に対する反応低下</t>
+  </si>
+  <si>
+    <t>ゴナドトロピン放出ホルモン刺激試験に対するLH反応の増加</t>
+  </si>
+  <si>
+    <t>グルカゴン試験に対するインスリン過剰反応</t>
+  </si>
+  <si>
+    <t>グルカゴン刺激試験に対する成長ホルモン反応障害</t>
+  </si>
+  <si>
+    <t>グルカゴン刺激試験に対するコルチゾール反応障害</t>
+  </si>
+  <si>
+    <t>下垂体前葉低形成</t>
+  </si>
+  <si>
+    <t>下垂体前葉無力症</t>
+  </si>
+  <si>
+    <t>下垂体がん</t>
+  </si>
+  <si>
+    <t>下垂体紡錘細胞腫瘍細胞腫</t>
+  </si>
+  <si>
+    <t>下垂体好酸球性幹細胞腺腫</t>
+  </si>
+  <si>
+    <t>下垂体性腺刺激細胞腺腫</t>
+  </si>
+  <si>
+    <t>下垂体性副腎皮質刺激細胞腺腫</t>
+  </si>
+  <si>
+    <t>マイクロプロラクチノーマ</t>
+  </si>
+  <si>
+    <t>マクロプロラクチノーマ</t>
+  </si>
+  <si>
+    <t>下垂体性甲状腺刺激細胞腺腫</t>
+  </si>
+  <si>
+    <t>下垂体成長ホルモン細胞腺腫</t>
+  </si>
+  <si>
+    <t>下垂体微小腺腫</t>
+  </si>
+  <si>
+    <t>下垂体ヌル細胞腺腫</t>
+  </si>
+  <si>
+    <t>下垂体巨大腺腫</t>
+  </si>
+  <si>
+    <t>循環プロラクチン濃度の上昇</t>
+  </si>
+  <si>
+    <t>副腎皮質刺激ホルモン過剰症</t>
+  </si>
+  <si>
+    <t>性腺刺激ホルモン欠乏症</t>
+  </si>
+  <si>
+    <t>副腎皮質刺激ホルモン欠乏症</t>
+  </si>
+  <si>
+    <t>汎下垂体機能低下症</t>
+  </si>
+  <si>
+    <t>循環プロラクチン濃度の低下</t>
+  </si>
+  <si>
+    <t>異所性下垂体前葉</t>
+  </si>
+  <si>
+    <t>甲状腺ホルモンに対する下垂体抵抗性</t>
+  </si>
+  <si>
+    <t>下垂体石灰化</t>
+  </si>
+  <si>
+    <t>プロラクチノーマ</t>
+  </si>
+  <si>
+    <t>萎縮性下垂体</t>
+  </si>
+  <si>
+    <t>下垂体増大</t>
+  </si>
+  <si>
+    <t>異所性下垂体後葉</t>
+  </si>
+  <si>
+    <t>下垂体後葉低形成</t>
+  </si>
+  <si>
+    <t>下垂体後葉無力症</t>
+  </si>
+  <si>
+    <t>下垂体細胞腫</t>
+  </si>
+  <si>
+    <t>甲状腺刺激ホルモン濃度の不適切な正常値</t>
+  </si>
+  <si>
+    <t>循環甲状腺刺激ホルモン濃度の上昇</t>
+  </si>
+  <si>
+    <t>甲状腺刺激ホルモン濃度の低下</t>
+  </si>
+  <si>
+    <t>視床下部黄体形成ホルモン放出ホルモン欠乏症</t>
+  </si>
+  <si>
+    <t>循環レニン濃度の低下</t>
+  </si>
+  <si>
+    <t>循環レニン濃度の上昇</t>
+  </si>
+  <si>
+    <t>循環アルドステロン異常</t>
+  </si>
+  <si>
+    <t>レニン・アンジオテンシン系亢進症</t>
+  </si>
+  <si>
+    <t>肺傍神経節腫</t>
+  </si>
+  <si>
+    <t>ケモデクトーマ</t>
+  </si>
+  <si>
+    <t>鼓膜傍神経節腫</t>
+  </si>
+  <si>
+    <t>頸部グロムス腫瘍</t>
+  </si>
+  <si>
+    <t>頸動脈傍神経節腫</t>
+  </si>
+  <si>
+    <t>血管傍神経節腫</t>
+  </si>
+  <si>
+    <t>副腎外褐色細胞腫</t>
+  </si>
+  <si>
+    <t>非定型肺カルチノイド腫瘍</t>
+  </si>
+  <si>
+    <t>腸カルチノイド</t>
+  </si>
+  <si>
+    <t>小腸カルチノイド</t>
+  </si>
+  <si>
+    <t>グルカゴノーマ</t>
+  </si>
+  <si>
+    <t>多発性膵β細胞腺腫</t>
+  </si>
+  <si>
+    <t>インスリノーマ</t>
+  </si>
+  <si>
+    <t>メルケル細胞皮膚がん</t>
+  </si>
+  <si>
+    <t>デキサメタゾン抑制性原発性アルドステロン症</t>
+  </si>
+  <si>
+    <t>グルココルトコイド非感受性原発性アルドステロン症</t>
+  </si>
+  <si>
+    <t>二次性アルドステロン症</t>
+  </si>
+  <si>
+    <t>循環アルドステロン濃度の低下</t>
+  </si>
+  <si>
+    <t>副腎皮質刺激ホルモン放出ホルモン分泌不全症</t>
+  </si>
+  <si>
+    <t>副腎皮質刺激ホルモン放出ホルモン受容体欠損症</t>
+  </si>
+  <si>
+    <t>副腎皮質刺激ホルモン分泌不全症</t>
+  </si>
+  <si>
+    <t>副腎皮質刺激ホルモン受容体欠損症</t>
+  </si>
+  <si>
+    <t>偽性低アルドステロン症</t>
+  </si>
+  <si>
+    <t>松果体形成不全</t>
+  </si>
+  <si>
+    <t>松果体石灰化</t>
+  </si>
+  <si>
+    <t>松果体積減少</t>
+  </si>
+  <si>
+    <t>松果体積増加</t>
+  </si>
+  <si>
+    <t>松果体嚢胞</t>
+  </si>
+  <si>
+    <t>松果体メラトニン分泌異常</t>
+  </si>
+  <si>
+    <t>β細胞機能障害</t>
+  </si>
+  <si>
+    <t>膵β細胞の減少</t>
+  </si>
+  <si>
+    <t>びまん性膵島過形成</t>
+  </si>
+  <si>
+    <t>膵α細胞過形成</t>
+  </si>
+  <si>
+    <t>限局性膵島過形成</t>
+  </si>
+  <si>
+    <t>一過性新生児糖尿病</t>
+  </si>
+  <si>
+    <t>思春期インスリン抵抗性糖尿病</t>
+  </si>
+  <si>
+    <t>糖尿病性ケトアシドーシス</t>
+  </si>
+  <si>
+    <t>若年成熟糖尿病</t>
+  </si>
+  <si>
+    <t>母体糖尿病</t>
+  </si>
+  <si>
+    <t>I型糖尿病</t>
+  </si>
+  <si>
+    <t>インスリン依存性ケトーシス抵抗性糖尿病</t>
   </si>
   <si>
     <t>Disease name</t>
@@ -1815,11 +2631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F274"/>
+  <dimension ref="A1:G274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1829,7 +2645,7 @@
     <col min="7" max="7" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1837,19 +2653,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>275</v>
+        <v>547</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>276</v>
+        <v>548</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>277</v>
+        <v>549</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>8186</v>
       </c>
@@ -1859,8 +2675,11 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>11742</v>
       </c>
@@ -1873,8 +2692,11 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>8231</v>
       </c>
@@ -1887,8 +2709,11 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>8258</v>
       </c>
@@ -1901,8 +2726,11 @@
       <c r="D5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>6748</v>
       </c>
@@ -1912,8 +2740,11 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6744</v>
       </c>
@@ -1923,8 +2754,11 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>11746</v>
       </c>
@@ -1934,8 +2768,11 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>11745</v>
       </c>
@@ -1945,8 +2782,11 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>8182</v>
       </c>
@@ -1956,8 +2796,11 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>1580</v>
       </c>
@@ -1967,8 +2810,11 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>10512</v>
       </c>
@@ -1978,8 +2824,11 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>8239</v>
       </c>
@@ -1992,8 +2841,11 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>8244</v>
       </c>
@@ -2006,8 +2858,11 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>11743</v>
       </c>
@@ -2020,8 +2875,11 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>8211</v>
       </c>
@@ -2031,8 +2889,11 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>860</v>
       </c>
@@ -2045,8 +2906,11 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>11769</v>
       </c>
@@ -2059,8 +2923,11 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>6780</v>
       </c>
@@ -2070,8 +2937,11 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>2897</v>
       </c>
@@ -2081,8 +2951,11 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>8208</v>
       </c>
@@ -2095,8 +2968,11 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>11771</v>
       </c>
@@ -2106,8 +2982,11 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>8198</v>
       </c>
@@ -2117,8 +2996,11 @@
       <c r="C23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>11770</v>
       </c>
@@ -2128,8 +3010,11 @@
       <c r="C24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>8200</v>
       </c>
@@ -2139,8 +3024,11 @@
       <c r="C25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>867</v>
       </c>
@@ -2150,8 +3038,11 @@
       <c r="C26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>852</v>
       </c>
@@ -2161,8 +3052,11 @@
       <c r="C27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>32329</v>
       </c>
@@ -2172,8 +3066,11 @@
       <c r="E28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>32330</v>
       </c>
@@ -2183,8 +3080,11 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>12030</v>
       </c>
@@ -2194,8 +3094,11 @@
       <c r="E30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>3492</v>
       </c>
@@ -2205,8 +3108,11 @@
       <c r="E31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>32331</v>
       </c>
@@ -2216,8 +3122,11 @@
       <c r="E32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>11782</v>
       </c>
@@ -2227,8 +3136,11 @@
       <c r="C33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>100647</v>
       </c>
@@ -2238,8 +3150,11 @@
       <c r="C34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>11783</v>
       </c>
@@ -2249,8 +3164,11 @@
       <c r="C35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>11785</v>
       </c>
@@ -2260,8 +3178,11 @@
       <c r="C36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>11786</v>
       </c>
@@ -2271,8 +3192,11 @@
       <c r="C37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>31220</v>
       </c>
@@ -2282,8 +3206,11 @@
       <c r="E38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>31219</v>
       </c>
@@ -2293,8 +3220,11 @@
       <c r="E39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="G39" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>34289</v>
       </c>
@@ -2304,8 +3234,11 @@
       <c r="E40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="G40" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>34288</v>
       </c>
@@ -2315,8 +3248,11 @@
       <c r="E41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="G41" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>31506</v>
       </c>
@@ -2326,8 +3262,11 @@
       <c r="E42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="G42" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>31507</v>
       </c>
@@ -2337,8 +3276,11 @@
       <c r="E43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="G43" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>12559</v>
       </c>
@@ -2348,8 +3290,11 @@
       <c r="E44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="G44" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>12560</v>
       </c>
@@ -2359,8 +3304,11 @@
       <c r="E45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="G45" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>11788</v>
       </c>
@@ -2370,8 +3318,11 @@
       <c r="E46" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="G46" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>32210</v>
       </c>
@@ -2381,8 +3332,11 @@
       <c r="E47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="G47" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>33078</v>
       </c>
@@ -2392,8 +3346,11 @@
       <c r="E48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>33077</v>
       </c>
@@ -2403,8 +3360,11 @@
       <c r="E49" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="G49" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>8263</v>
       </c>
@@ -2417,8 +3377,11 @@
       <c r="E50" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>25482</v>
       </c>
@@ -2428,8 +3391,11 @@
       <c r="E51" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>11791</v>
       </c>
@@ -2439,8 +3405,11 @@
       <c r="C52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="G52" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>11790</v>
       </c>
@@ -2450,8 +3419,11 @@
       <c r="C53" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>8237</v>
       </c>
@@ -2461,8 +3433,11 @@
       <c r="C54" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>8245</v>
       </c>
@@ -2472,8 +3447,11 @@
       <c r="C55" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="G55" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>832</v>
       </c>
@@ -2483,8 +3461,11 @@
       <c r="C56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="G56" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>851</v>
       </c>
@@ -2494,8 +3475,11 @@
       <c r="C57" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="G57" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>8223</v>
       </c>
@@ -2505,8 +3489,11 @@
       <c r="C58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="G58" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>8247</v>
       </c>
@@ -2516,8 +3503,11 @@
       <c r="C59" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="G59" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>33082</v>
       </c>
@@ -2527,8 +3517,11 @@
       <c r="E60" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="G60" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>33081</v>
       </c>
@@ -2538,8 +3531,11 @@
       <c r="E61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="G61" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>2930</v>
       </c>
@@ -2549,8 +3545,11 @@
       <c r="C62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="G62" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>8229</v>
       </c>
@@ -2560,8 +3559,11 @@
       <c r="C63" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="G63" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>100030</v>
       </c>
@@ -2571,8 +3573,11 @@
       <c r="C64" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="G64" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>100029</v>
       </c>
@@ -2582,8 +3587,11 @@
       <c r="C65" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="G65" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>872</v>
       </c>
@@ -2593,8 +3601,11 @@
       <c r="C66" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="G66" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>6781</v>
       </c>
@@ -2604,8 +3615,11 @@
       <c r="C67" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="G67" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>11777</v>
       </c>
@@ -2615,8 +3629,11 @@
       <c r="C68" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="G68" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>11775</v>
       </c>
@@ -2626,8 +3643,11 @@
       <c r="C69" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="G69" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>11776</v>
       </c>
@@ -2637,8 +3657,11 @@
       <c r="C70" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="G70" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>11778</v>
       </c>
@@ -2648,8 +3671,11 @@
       <c r="C71" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="G71" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>2895</v>
       </c>
@@ -2659,8 +3685,11 @@
       <c r="C72" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="G72" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>40198</v>
       </c>
@@ -2670,8 +3699,11 @@
       <c r="C73" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="G73" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>2865</v>
       </c>
@@ -2681,8 +3713,11 @@
       <c r="C74" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="G74" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>6731</v>
       </c>
@@ -2692,8 +3727,11 @@
       <c r="C75" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="G75" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>11779</v>
       </c>
@@ -2703,8 +3741,11 @@
       <c r="C76" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="G76" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>11781</v>
       </c>
@@ -2717,8 +3758,11 @@
       <c r="D77" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="G77" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>8225</v>
       </c>
@@ -2731,8 +3775,11 @@
       <c r="D78" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="G78" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>25388</v>
       </c>
@@ -2745,8 +3792,11 @@
       <c r="D79" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="G79" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>8191</v>
       </c>
@@ -2759,8 +3809,11 @@
       <c r="D80" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="G80" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>5990</v>
       </c>
@@ -2773,8 +3826,11 @@
       <c r="D81" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="G81" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>11780</v>
       </c>
@@ -2787,8 +3843,11 @@
       <c r="D82" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="G82" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>866</v>
       </c>
@@ -2798,8 +3857,11 @@
       <c r="C83" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="G83" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>8251</v>
       </c>
@@ -2809,8 +3871,11 @@
       <c r="C84" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="G84" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>5987</v>
       </c>
@@ -2820,8 +3885,11 @@
       <c r="C85" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="G85" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>11773</v>
       </c>
@@ -2831,8 +3899,11 @@
       <c r="C86" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="G86" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>10518</v>
       </c>
@@ -2842,8 +3913,11 @@
       <c r="C87" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="G87" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>863</v>
       </c>
@@ -2853,8 +3927,11 @@
       <c r="C88" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="G88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>9806</v>
       </c>
@@ -2867,8 +3944,11 @@
       <c r="D89" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="G89" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>8647</v>
       </c>
@@ -2878,8 +3958,11 @@
       <c r="C90" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="G90" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>8226</v>
       </c>
@@ -2889,8 +3972,11 @@
       <c r="C91" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="G91" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>12412</v>
       </c>
@@ -2900,8 +3986,11 @@
       <c r="C92" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="G92" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>10465</v>
       </c>
@@ -2911,8 +4000,11 @@
       <c r="C93" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="G93" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>8185</v>
       </c>
@@ -2922,8 +4014,11 @@
       <c r="C94" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="G94" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>12411</v>
       </c>
@@ -2933,8 +4028,11 @@
       <c r="C95" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="G95" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>8204</v>
       </c>
@@ -2944,8 +4042,11 @@
       <c r="C96" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>10314</v>
       </c>
@@ -2958,8 +4059,11 @@
       <c r="F97" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>8236</v>
       </c>
@@ -2969,8 +4073,11 @@
       <c r="C98" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>8193</v>
       </c>
@@ -2980,8 +4087,11 @@
       <c r="C99" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>12569</v>
       </c>
@@ -2994,8 +4104,11 @@
       <c r="F100" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>25515</v>
       </c>
@@ -3008,8 +4121,11 @@
       <c r="F101" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>25453</v>
       </c>
@@ -3022,8 +4138,11 @@
       <c r="F102" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>840</v>
       </c>
@@ -3033,8 +4152,11 @@
       <c r="C103" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>44</v>
       </c>
@@ -3044,8 +4166,11 @@
       <c r="C104" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>26</v>
       </c>
@@ -3055,8 +4180,11 @@
       <c r="C105" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>134</v>
       </c>
@@ -3066,8 +4194,11 @@
       <c r="C106" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>815</v>
       </c>
@@ -3077,8 +4208,11 @@
       <c r="C107" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="G107" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>2929</v>
       </c>
@@ -3088,8 +4222,11 @@
       <c r="C108" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="G108" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>8187</v>
       </c>
@@ -3105,8 +4242,11 @@
       <c r="F109" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="G109" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>10516</v>
       </c>
@@ -3119,8 +4259,11 @@
       <c r="D110" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="G110" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>3357</v>
       </c>
@@ -3130,8 +4273,11 @@
       <c r="E111" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="G111" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>10517</v>
       </c>
@@ -3141,8 +4287,11 @@
       <c r="D112" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="G112" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>5359</v>
       </c>
@@ -3155,8 +4304,11 @@
       <c r="D113" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="G113" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>778</v>
       </c>
@@ -3169,8 +4321,11 @@
       <c r="D114" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="G114" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>100522</v>
       </c>
@@ -3180,8 +4335,11 @@
       <c r="C115" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="G115" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>3154</v>
       </c>
@@ -3191,8 +4349,11 @@
       <c r="E116" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="G116" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>2920</v>
       </c>
@@ -3202,8 +4363,11 @@
       <c r="E117" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="G117" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>3292</v>
       </c>
@@ -3213,8 +4377,11 @@
       <c r="E118" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="G118" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>31793</v>
       </c>
@@ -3224,8 +4391,11 @@
       <c r="E119" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="G119" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>31052</v>
       </c>
@@ -3235,8 +4405,11 @@
       <c r="E120" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="G120" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>25139</v>
       </c>
@@ -3246,8 +4419,11 @@
       <c r="E121" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="G121" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>25140</v>
       </c>
@@ -3257,8 +4433,11 @@
       <c r="E122" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="G122" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>25134</v>
       </c>
@@ -3268,8 +4447,11 @@
       <c r="E123" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="G123" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>8214</v>
       </c>
@@ -3279,8 +4461,11 @@
       <c r="E124" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="G124" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>25137</v>
       </c>
@@ -3290,8 +4475,11 @@
       <c r="E125" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="G125" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>25136</v>
       </c>
@@ -3301,8 +4489,11 @@
       <c r="E126" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="G126" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>33809</v>
       </c>
@@ -3312,8 +4503,11 @@
       <c r="E127" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="G127" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>31216</v>
       </c>
@@ -3323,8 +4517,11 @@
       <c r="E128" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="G128" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>31213</v>
       </c>
@@ -3334,8 +4531,11 @@
       <c r="E129" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="G129" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>8233</v>
       </c>
@@ -3345,8 +4545,11 @@
       <c r="E130" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="G130" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>33527</v>
       </c>
@@ -3356,8 +4559,11 @@
       <c r="E131" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="G131" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>25380</v>
       </c>
@@ -3367,8 +4573,11 @@
       <c r="E132" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="G132" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>30088</v>
       </c>
@@ -3378,8 +4587,11 @@
       <c r="E133" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="G133" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>31214</v>
       </c>
@@ -3389,8 +4601,11 @@
       <c r="E134" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="G134" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>40171</v>
       </c>
@@ -3400,8 +4615,11 @@
       <c r="E135" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="G135" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>33810</v>
       </c>
@@ -3411,8 +4629,11 @@
       <c r="E136" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="G136" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137">
         <v>33812</v>
       </c>
@@ -3422,8 +4643,11 @@
       <c r="E137" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="G137" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>31215</v>
       </c>
@@ -3433,8 +4657,11 @@
       <c r="E138" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="G138" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>40216</v>
       </c>
@@ -3444,8 +4671,11 @@
       <c r="E139" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="G139" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140">
         <v>825</v>
       </c>
@@ -3455,8 +4685,11 @@
       <c r="E140" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="G140" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>8283</v>
       </c>
@@ -3466,8 +4699,11 @@
       <c r="E141" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="G141" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142">
         <v>34384</v>
       </c>
@@ -3477,8 +4713,11 @@
       <c r="E142" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="G142" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143">
         <v>20200</v>
       </c>
@@ -3488,8 +4727,11 @@
       <c r="E143" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="G143" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>20199</v>
       </c>
@@ -3499,8 +4741,11 @@
       <c r="E144" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="G144" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145">
         <v>32363</v>
       </c>
@@ -3510,8 +4755,11 @@
       <c r="E145" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="G145" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>31186</v>
       </c>
@@ -3521,8 +4769,11 @@
       <c r="E146" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="G146" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147">
         <v>32362</v>
       </c>
@@ -3532,8 +4783,11 @@
       <c r="E147" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="G147" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>1579</v>
       </c>
@@ -3543,8 +4797,11 @@
       <c r="E148" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="G148" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149">
         <v>25436</v>
       </c>
@@ -3554,8 +4811,11 @@
       <c r="E149" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="G149" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150">
         <v>11744</v>
       </c>
@@ -3565,8 +4825,11 @@
       <c r="E150" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="G150" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>3466</v>
       </c>
@@ -3576,8 +4839,11 @@
       <c r="E151" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="G151" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>8163</v>
       </c>
@@ -3587,8 +4853,11 @@
       <c r="E152" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="G152" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>500167</v>
       </c>
@@ -3598,8 +4867,11 @@
       <c r="E153" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="G153" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>31817</v>
       </c>
@@ -3609,8 +4881,11 @@
       <c r="E154" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="G154" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>32308</v>
       </c>
@@ -3620,8 +4895,11 @@
       <c r="E155" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="G155" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>3165</v>
       </c>
@@ -3631,8 +4909,11 @@
       <c r="E156" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="G156" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>3528</v>
       </c>
@@ -3642,8 +4923,11 @@
       <c r="E157" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="G157" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>31428</v>
       </c>
@@ -3653,8 +4937,11 @@
       <c r="E158" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="G158" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159">
         <v>31429</v>
       </c>
@@ -3664,8 +4951,11 @@
       <c r="E159" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="G159" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>31208</v>
       </c>
@@ -3675,8 +4965,11 @@
       <c r="E160" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="G160" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161">
         <v>32482</v>
       </c>
@@ -3686,8 +4979,11 @@
       <c r="E161" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="G161" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162">
         <v>3334</v>
       </c>
@@ -3697,8 +4993,11 @@
       <c r="E162" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="G162" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163">
         <v>30269</v>
       </c>
@@ -3708,8 +5007,11 @@
       <c r="E163" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="G163" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164">
         <v>30353</v>
       </c>
@@ -3719,8 +5021,11 @@
       <c r="E164" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="G164" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165">
         <v>30686</v>
       </c>
@@ -3730,8 +5035,11 @@
       <c r="E165" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="G165" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166">
         <v>30685</v>
       </c>
@@ -3741,8 +5049,11 @@
       <c r="E166" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="G166" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167">
         <v>3144</v>
       </c>
@@ -3752,8 +5063,11 @@
       <c r="E167" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="G167" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168">
         <v>500013</v>
       </c>
@@ -3763,8 +5077,11 @@
       <c r="E168" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="G168" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169">
         <v>3164</v>
       </c>
@@ -3774,8 +5091,11 @@
       <c r="E169" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="G169" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170">
         <v>30341</v>
       </c>
@@ -3785,8 +5105,11 @@
       <c r="E170" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="G170" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171">
         <v>8232</v>
       </c>
@@ -3796,8 +5119,11 @@
       <c r="E171" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="G171" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172">
         <v>11969</v>
       </c>
@@ -3807,8 +5133,11 @@
       <c r="E172" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="G172" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>30344</v>
       </c>
@@ -3818,8 +5147,11 @@
       <c r="E173" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="G173" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174">
         <v>30689</v>
       </c>
@@ -3829,8 +5161,11 @@
       <c r="E174" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="G174" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175">
         <v>30688</v>
       </c>
@@ -3840,8 +5175,11 @@
       <c r="E175" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="G175" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>34323</v>
       </c>
@@ -3851,8 +5189,11 @@
       <c r="E176" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="G176" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>845</v>
       </c>
@@ -3862,8 +5203,11 @@
       <c r="E177" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="G177" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>31103</v>
       </c>
@@ -3873,8 +5217,11 @@
       <c r="E178" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="G178" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>31102</v>
       </c>
@@ -3884,8 +5231,11 @@
       <c r="E179" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="G179" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>33644</v>
       </c>
@@ -3895,8 +5245,11 @@
       <c r="E180" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="G180" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181">
         <v>34443</v>
       </c>
@@ -3906,8 +5259,11 @@
       <c r="E181" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="G181" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182">
         <v>31100</v>
       </c>
@@ -3917,8 +5273,11 @@
       <c r="E182" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="G182" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183">
         <v>31218</v>
       </c>
@@ -3934,8 +5293,11 @@
       <c r="E183" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="G183" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184">
         <v>31078</v>
       </c>
@@ -3951,8 +5313,11 @@
       <c r="E184" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="G184" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185">
         <v>8240</v>
       </c>
@@ -3968,8 +5333,11 @@
       <c r="E185" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="G185" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186">
         <v>33579</v>
       </c>
@@ -3982,8 +5350,11 @@
       <c r="E186" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:5">
+      <c r="G186" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187">
         <v>31074</v>
       </c>
@@ -3996,8 +5367,11 @@
       <c r="E187" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="G187" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188">
         <v>31083</v>
       </c>
@@ -4010,8 +5384,11 @@
       <c r="E188" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="G188" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189">
         <v>31079</v>
       </c>
@@ -4024,8 +5401,11 @@
       <c r="E189" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="G189" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190">
         <v>31076</v>
       </c>
@@ -4038,8 +5418,11 @@
       <c r="E190" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="G190" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191">
         <v>20159</v>
       </c>
@@ -4052,8 +5435,11 @@
       <c r="E191" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="G191" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192">
         <v>31280</v>
       </c>
@@ -4066,8 +5452,11 @@
       <c r="E192" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:5">
+      <c r="G192" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193">
         <v>31084</v>
       </c>
@@ -4080,8 +5469,11 @@
       <c r="E193" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:5">
+      <c r="G193" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194">
         <v>31082</v>
       </c>
@@ -4094,8 +5486,11 @@
       <c r="E194" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:5">
+      <c r="G194" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195">
         <v>31081</v>
       </c>
@@ -4108,8 +5503,11 @@
       <c r="E195" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:5">
+      <c r="G195" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196">
         <v>10627</v>
       </c>
@@ -4122,8 +5520,11 @@
       <c r="D196" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
+      <c r="G196" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197">
         <v>10626</v>
       </c>
@@ -4133,8 +5534,11 @@
       <c r="C197" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:5">
+      <c r="G197" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198">
         <v>11763</v>
       </c>
@@ -4144,8 +5548,11 @@
       <c r="C198" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:5">
+      <c r="G198" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199">
         <v>11764</v>
       </c>
@@ -4155,8 +5562,11 @@
       <c r="C199" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="G199" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200">
         <v>11758</v>
       </c>
@@ -4166,8 +5576,11 @@
       <c r="C200" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:5">
+      <c r="G200" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201">
         <v>11759</v>
       </c>
@@ -4177,8 +5590,11 @@
       <c r="C201" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:5">
+      <c r="G201" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202">
         <v>8291</v>
       </c>
@@ -4188,8 +5604,11 @@
       <c r="C202" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:5">
+      <c r="G202" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203">
         <v>12341</v>
       </c>
@@ -4199,8 +5618,11 @@
       <c r="C203" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:5">
+      <c r="G203" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204">
         <v>12342</v>
       </c>
@@ -4210,8 +5632,11 @@
       <c r="C204" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:5">
+      <c r="G204" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205">
         <v>11762</v>
       </c>
@@ -4221,8 +5646,11 @@
       <c r="C205" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:5">
+      <c r="G205" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206">
         <v>11760</v>
       </c>
@@ -4232,8 +5660,11 @@
       <c r="C206" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:5">
+      <c r="G206" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207">
         <v>25694</v>
       </c>
@@ -4243,8 +5674,11 @@
       <c r="C207" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:5">
+      <c r="G207" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208">
         <v>11761</v>
       </c>
@@ -4254,8 +5688,11 @@
       <c r="C208" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:5">
+      <c r="G208" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209">
         <v>25693</v>
       </c>
@@ -4265,8 +5702,11 @@
       <c r="C209" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:5">
+      <c r="G209" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210">
         <v>870</v>
       </c>
@@ -4276,8 +5716,11 @@
       <c r="E210" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:5">
+      <c r="G210" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211">
         <v>11749</v>
       </c>
@@ -4287,8 +5730,11 @@
       <c r="E211" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:5">
+      <c r="G211" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212">
         <v>8213</v>
       </c>
@@ -4298,8 +5744,11 @@
       <c r="E212" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:5">
+      <c r="G212" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213">
         <v>11748</v>
       </c>
@@ -4309,8 +5758,11 @@
       <c r="E213" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:5">
+      <c r="G213" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214">
         <v>871</v>
       </c>
@@ -4326,8 +5778,11 @@
       <c r="E214" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:5">
+      <c r="G214" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215">
         <v>8202</v>
       </c>
@@ -4337,8 +5792,11 @@
       <c r="E215" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:5">
+      <c r="G215" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216">
         <v>12731</v>
       </c>
@@ -4351,8 +5809,11 @@
       <c r="D216" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:5">
+      <c r="G216" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217">
         <v>8227</v>
       </c>
@@ -4365,8 +5826,11 @@
       <c r="E217" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:5">
+      <c r="G217" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218">
         <v>10513</v>
       </c>
@@ -4376,8 +5840,11 @@
       <c r="D218" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:5">
+      <c r="G218" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219">
         <v>40278</v>
       </c>
@@ -4387,8 +5854,11 @@
       <c r="C219" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:5">
+      <c r="G219" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
       <c r="A220">
         <v>410279</v>
       </c>
@@ -4398,8 +5868,11 @@
       <c r="C220" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:5">
+      <c r="G220" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221">
         <v>12505</v>
       </c>
@@ -4409,8 +5882,11 @@
       <c r="D221" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:5">
+      <c r="G221" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
       <c r="A222">
         <v>11755</v>
       </c>
@@ -4420,8 +5896,11 @@
       <c r="C222" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:5">
+      <c r="G222" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223">
         <v>11757</v>
       </c>
@@ -4431,8 +5910,11 @@
       <c r="C223" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:5">
+      <c r="G223" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224">
         <v>11756</v>
       </c>
@@ -4442,8 +5924,11 @@
       <c r="C224" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:5">
+      <c r="G224" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225">
         <v>11754</v>
       </c>
@@ -4453,8 +5938,11 @@
       <c r="C225" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:5">
+      <c r="G225" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226">
         <v>33075</v>
       </c>
@@ -4464,8 +5952,11 @@
       <c r="E226" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:5">
+      <c r="G226" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227">
         <v>2925</v>
       </c>
@@ -4475,8 +5966,11 @@
       <c r="E227" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:5">
+      <c r="G227" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228">
         <v>31098</v>
       </c>
@@ -4486,8 +5980,11 @@
       <c r="E228" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:5">
+      <c r="G228" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229">
         <v>12287</v>
       </c>
@@ -4497,8 +5994,11 @@
       <c r="E229" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:5">
+      <c r="G229" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230">
         <v>3351</v>
       </c>
@@ -4508,8 +6008,11 @@
       <c r="E230" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:5">
+      <c r="G230" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231">
         <v>848</v>
       </c>
@@ -4519,8 +6022,11 @@
       <c r="E231" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:5">
+      <c r="G231" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232">
         <v>40085</v>
       </c>
@@ -4530,8 +6036,11 @@
       <c r="E232" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:5">
+      <c r="G232" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233">
         <v>841</v>
       </c>
@@ -4541,8 +6050,11 @@
       <c r="E233" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:5">
+      <c r="G233" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
       <c r="A234">
         <v>100636</v>
       </c>
@@ -4552,8 +6064,11 @@
       <c r="C234" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:5">
+      <c r="G234" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
       <c r="A235">
         <v>30074</v>
       </c>
@@ -4563,8 +6078,11 @@
       <c r="C235" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:5">
+      <c r="G235" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236">
         <v>6715</v>
       </c>
@@ -4574,8 +6092,11 @@
       <c r="C236" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:5">
+      <c r="G236" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237">
         <v>3001</v>
       </c>
@@ -4585,8 +6106,11 @@
       <c r="C237" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:5">
+      <c r="G237" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238">
         <v>100635</v>
       </c>
@@ -4596,8 +6120,11 @@
       <c r="C238" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:5">
+      <c r="G238" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
       <c r="A239">
         <v>2886</v>
       </c>
@@ -4607,8 +6134,11 @@
       <c r="C239" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:5">
+      <c r="G239" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240">
         <v>6737</v>
       </c>
@@ -4618,8 +6148,11 @@
       <c r="C240" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:5">
+      <c r="G240" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241">
         <v>30446</v>
       </c>
@@ -4629,8 +6162,11 @@
       <c r="C241" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:5">
+      <c r="G241" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
       <c r="A242">
         <v>6723</v>
       </c>
@@ -4640,8 +6176,11 @@
       <c r="C242" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:5">
+      <c r="G242" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
       <c r="A243">
         <v>6722</v>
       </c>
@@ -4651,8 +6190,11 @@
       <c r="C243" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:5">
+      <c r="G243" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
       <c r="A244">
         <v>30404</v>
       </c>
@@ -4662,8 +6204,11 @@
       <c r="C244" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:5">
+      <c r="G244" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
       <c r="A245">
         <v>8194</v>
       </c>
@@ -4673,8 +6218,11 @@
       <c r="C245" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:5">
+      <c r="G245" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246">
         <v>12197</v>
       </c>
@@ -4684,8 +6232,11 @@
       <c r="C246" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:5">
+      <c r="G246" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
       <c r="A247">
         <v>30447</v>
       </c>
@@ -4695,8 +6246,11 @@
       <c r="C247" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:5">
+      <c r="G247" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248">
         <v>11739</v>
       </c>
@@ -4706,8 +6260,11 @@
       <c r="C248" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:5">
+      <c r="G248" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
       <c r="A249">
         <v>11740</v>
       </c>
@@ -4717,8 +6274,11 @@
       <c r="C249" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:5">
+      <c r="G249" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
       <c r="A250">
         <v>11741</v>
       </c>
@@ -4734,8 +6294,11 @@
       <c r="E250" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:5">
+      <c r="G250" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
       <c r="A251">
         <v>4319</v>
       </c>
@@ -4745,8 +6308,11 @@
       <c r="E251" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:5">
+      <c r="G251" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252">
         <v>11737</v>
       </c>
@@ -4756,8 +6322,11 @@
       <c r="C252" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:5">
+      <c r="G252" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
       <c r="A253">
         <v>11738</v>
       </c>
@@ -4767,8 +6336,11 @@
       <c r="C253" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:5">
+      <c r="G253" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
       <c r="A254">
         <v>11735</v>
       </c>
@@ -4778,8 +6350,11 @@
       <c r="C254" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:5">
+      <c r="G254" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
       <c r="A255">
         <v>8259</v>
       </c>
@@ -4789,8 +6364,11 @@
       <c r="C255" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:5">
+      <c r="G255" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
       <c r="A256">
         <v>8242</v>
       </c>
@@ -4800,8 +6378,11 @@
       <c r="C256" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:5">
+      <c r="G256" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257">
         <v>12687</v>
       </c>
@@ -4814,8 +6395,11 @@
       <c r="D257" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:5">
+      <c r="G257" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
       <c r="A258">
         <v>12682</v>
       </c>
@@ -4825,8 +6409,11 @@
       <c r="D258" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:5">
+      <c r="G258" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
       <c r="A259">
         <v>12685</v>
       </c>
@@ -4836,8 +6423,11 @@
       <c r="D259" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:5">
+      <c r="G259" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
       <c r="A260">
         <v>12686</v>
       </c>
@@ -4847,8 +6437,11 @@
       <c r="D260" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:5">
+      <c r="G260" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
       <c r="A261">
         <v>12683</v>
       </c>
@@ -4861,8 +6454,11 @@
       <c r="D261" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:5">
+      <c r="G261" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
       <c r="A262">
         <v>12689</v>
       </c>
@@ -4872,8 +6468,11 @@
       <c r="E262" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:5">
+      <c r="G262" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
       <c r="A263">
         <v>6279</v>
       </c>
@@ -4883,8 +6482,11 @@
       <c r="E263" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:5">
+      <c r="G263" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
       <c r="A264">
         <v>6274</v>
       </c>
@@ -4894,8 +6496,11 @@
       <c r="D264" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:5">
+      <c r="G264" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
       <c r="A265">
         <v>31224</v>
       </c>
@@ -4905,8 +6510,11 @@
       <c r="D265" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:5">
+      <c r="G265" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
       <c r="A266">
         <v>4000061</v>
       </c>
@@ -4916,8 +6524,11 @@
       <c r="D266" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:5">
+      <c r="G266" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267">
         <v>31223</v>
       </c>
@@ -4927,8 +6538,11 @@
       <c r="D267" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:5">
+      <c r="G267" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
       <c r="A268">
         <v>8255</v>
       </c>
@@ -4941,8 +6555,11 @@
       <c r="D268" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:5">
+      <c r="G268" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
       <c r="A269">
         <v>877</v>
       </c>
@@ -4952,8 +6569,11 @@
       <c r="C269" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:5">
+      <c r="G269" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
       <c r="A270">
         <v>1953</v>
       </c>
@@ -4969,8 +6589,11 @@
       <c r="E270" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:5">
+      <c r="G270" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
       <c r="A271">
         <v>4904</v>
       </c>
@@ -4980,8 +6603,11 @@
       <c r="C271" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:5">
+      <c r="G271" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
       <c r="A272">
         <v>9800</v>
       </c>
@@ -4991,8 +6617,11 @@
       <c r="C272" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:3">
+      <c r="G272" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
       <c r="A273">
         <v>100651</v>
       </c>
@@ -5002,8 +6631,11 @@
       <c r="C273" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:3">
+      <c r="G273" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
       <c r="A274">
         <v>8205</v>
       </c>
@@ -5012,6 +6644,9 @@
       </c>
       <c r="C274" s="1">
         <v>1</v>
+      </c>
+      <c r="G274" t="s">
+        <v>546</v>
       </c>
     </row>
   </sheetData>
